--- a/硬件故障记录.xlsx
+++ b/硬件故障记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="246">
   <si>
     <t>云主机编号</t>
   </si>
@@ -759,6 +759,14 @@
     <t>2021/12/07</t>
   </si>
   <si>
+    <t>2022/01/17</t>
+  </si>
+  <si>
+    <t>disk2/sdc
+ST8000NM0055-1RM112
+ZA1HAW84</t>
+  </si>
+  <si>
     <t>nxbc02504.cloud.c07.qm500</t>
   </si>
   <si>
@@ -771,20 +779,12 @@
     <t>C07-4</t>
   </si>
   <si>
-    <t>2022/01/14</t>
+    <t>2022/01/18</t>
   </si>
   <si>
     <t>disk8/sdj
 ST8000NM0055-1RM112
 ZA1HBD9C</t>
-  </si>
-  <si>
-    <t>2022/01/17</t>
-  </si>
-  <si>
-    <t>disk2/sdc
-ST8000NM0055-1RM112
-ZA1HAW84</t>
   </si>
 </sst>
 </file>
@@ -793,9 +793,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -803,6 +803,64 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,11 +888,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,63 +935,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -920,33 +943,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -959,19 +959,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,43 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,73 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,19 +1103,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,39 +1150,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1197,30 +1164,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,6 +1193,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1258,10 +1258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1270,133 +1270,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,10 +1763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="B38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3441,22 +3441,22 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>162</v>
@@ -3465,10 +3465,10 @@
         <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s">
         <v>24</v>
@@ -3477,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="N36" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="O36" t="s">
         <v>27</v>
@@ -3486,18 +3486,18 @@
         <v>164</v>
       </c>
       <c r="Q36" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -3506,7 +3506,7 @@
         <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
         <v>162</v>
@@ -3536,56 +3536,6 @@
         <v>164</v>
       </c>
       <c r="Q37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" t="s">
-        <v>244</v>
-      </c>
-      <c r="J38" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" t="s">
-        <v>43</v>
-      </c>
-      <c r="O38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q38" t="s">
         <v>245</v>
       </c>
     </row>
